--- a/020-内部_プログラミング設計/022-クラス仕様書/Servletのクラス仕様書(ItemSearchServlet).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/Servletのクラス仕様書(ItemSearchServlet).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB571592-8AAA-4970-ACF3-BCBAC1C2A8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC7A40-0F7D-41CB-A9D6-15DA96500B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8844" yWindow="0" windowWidth="14196" windowHeight="12096" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（doGet）'!$A$1:$BI$53</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BI$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BI$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>イベントに対応するServletクラスです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ItemSearchServlet</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -217,79 +213,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.requestパラメータに保存されているkeywordとcategoryIdを取得し、それぞれ変数:keywordと</t>
-    <rPh sb="15" eb="17">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ヘンスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数:categoryIdに格納する</t>
-    <rPh sb="14" eb="16">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.ItemSearchServiceをインスタンス化</t>
-    <rPh sb="26" eb="27">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.List&lt;ItemsDTO&gt;をnull値で初期化</t>
-    <rPh sb="21" eb="22">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5.ItemSearchServiceのitemSearch(引数:keyword,categoryId)メソッドを呼び出し、</t>
-    <rPh sb="31" eb="33">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻り値をList&lt;ItemsDTO&gt;に代入する</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ダイニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6.requestにList&lt;ItemsDTO&gt;インスタンスを格納する</t>
-    <rPh sb="31" eb="33">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7.商品検索結果画面に転送する</t>
     <rPh sb="2" eb="8">
       <t>ショウヒンケンサクケッカ</t>
@@ -303,7 +226,157 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>return</t>
+    <t>※ClassNotFoundExceptionまたはSQLException発生時</t>
+    <rPh sb="38" eb="41">
+      <t>ハッセイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品検索画面に遷移し、エラーメッセージを表示する</t>
+    <rPh sb="0" eb="6">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.requestパラメータに保存されている値を取得し、それぞれ変数:keywordと変数:categoryIdに格納する</t>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List&lt;ItemsDTO&gt;インスタンス(検索結果)</t>
+    <rPh sb="21" eb="25">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keyword(商品検索画面で入力されたキーワード)、
+categoryId(商品検索画面で選択されたカテゴリーのID)</t>
+    <rPh sb="8" eb="14">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="39" eb="45">
+      <t>ショウヒンケンサクガメン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.ItemSearchService変数:serviceをインスタンス化</t>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.List&lt;ItemsDTO&gt;変数:itemListをnull値で初期化</t>
+    <rPh sb="16" eb="18">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.変数:serviceのitemSearch(引数:keyword,categoryId)メソッドを呼び出し、</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値を変数:itemListに代入する</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ダイニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.requestに変数:itemListを格納する</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本 毅斗</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タケシト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClassNotFoundException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLException</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serviceクラスからthrowされる例外</t>
+    <rPh sb="20" eb="22">
+      <t>レイガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントに対応するServletクラス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -541,7 +614,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,6 +764,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1038,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX22"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1378,7 +1460,9 @@
       </c>
       <c r="AR2" s="42"/>
       <c r="AS2" s="42"/>
-      <c r="AT2" s="41"/>
+      <c r="AT2" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="AU2" s="41"/>
       <c r="AV2" s="41"/>
       <c r="AW2" s="41"/>
@@ -1390,7 +1474,9 @@
       </c>
       <c r="BB2" s="42"/>
       <c r="BC2" s="42"/>
-      <c r="BD2" s="39"/>
+      <c r="BD2" s="39">
+        <v>45561</v>
+      </c>
       <c r="BE2" s="39"/>
       <c r="BF2" s="39"/>
       <c r="BG2" s="39"/>
@@ -1604,7 +1690,7 @@
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -1671,7 +1757,7 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
@@ -2773,7 +2859,7 @@
   <dimension ref="A1:IX54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="AE1" sqref="AE1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2821,10 +2907,7 @@
       </c>
       <c r="AC1" s="42"/>
       <c r="AD1" s="42"/>
-      <c r="AE1" s="41">
-        <f>クラス仕様!AE1</f>
-        <v>0</v>
-      </c>
+      <c r="AE1" s="41"/>
       <c r="AF1" s="41"/>
       <c r="AG1" s="41"/>
       <c r="AH1" s="41"/>
@@ -3116,7 +3199,10 @@
       </c>
       <c r="AR2" s="42"/>
       <c r="AS2" s="42"/>
-      <c r="AT2" s="41"/>
+      <c r="AT2" s="41" t="str">
+        <f>クラス仕様!AT2</f>
+        <v>岡本 毅斗</v>
+      </c>
       <c r="AU2" s="41"/>
       <c r="AV2" s="41"/>
       <c r="AW2" s="41"/>
@@ -3128,7 +3214,10 @@
       </c>
       <c r="BB2" s="42"/>
       <c r="BC2" s="42"/>
-      <c r="BD2" s="39"/>
+      <c r="BD2" s="39">
+        <f>クラス仕様!BD2</f>
+        <v>45561</v>
+      </c>
       <c r="BE2" s="39"/>
       <c r="BF2" s="39"/>
       <c r="BG2" s="39"/>
@@ -16700,10 +16789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IX54"/>
+  <dimension ref="A1:IX56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N1" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16751,10 +16840,7 @@
       </c>
       <c r="AC1" s="42"/>
       <c r="AD1" s="42"/>
-      <c r="AE1" s="41">
-        <f>クラス仕様!AE1</f>
-        <v>0</v>
-      </c>
+      <c r="AE1" s="41"/>
       <c r="AF1" s="41"/>
       <c r="AG1" s="41"/>
       <c r="AH1" s="41"/>
@@ -17046,7 +17132,10 @@
       </c>
       <c r="AR2" s="42"/>
       <c r="AS2" s="42"/>
-      <c r="AT2" s="41"/>
+      <c r="AT2" s="41" t="str">
+        <f>クラス仕様!AT2</f>
+        <v>岡本 毅斗</v>
+      </c>
       <c r="AU2" s="41"/>
       <c r="AV2" s="41"/>
       <c r="AW2" s="41"/>
@@ -17058,7 +17147,10 @@
       </c>
       <c r="BB2" s="42"/>
       <c r="BC2" s="42"/>
-      <c r="BD2" s="39"/>
+      <c r="BD2" s="39">
+        <f>クラス仕様!BD2</f>
+        <v>45561</v>
+      </c>
       <c r="BE2" s="39"/>
       <c r="BF2" s="39"/>
       <c r="BG2" s="39"/>
@@ -19391,67 +19483,75 @@
       <c r="IX11" s="1"/>
     </row>
     <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
+      <c r="A12" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF12" s="45"/>
+      <c r="AG12" s="45"/>
+      <c r="AH12" s="45"/>
+      <c r="AI12" s="45"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
+      <c r="AP12" s="45"/>
+      <c r="AQ12" s="45"/>
+      <c r="AR12" s="45"/>
+      <c r="AS12" s="45"/>
+      <c r="AT12" s="45"/>
+      <c r="AU12" s="45"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
+      <c r="BB12" s="45"/>
+      <c r="BC12" s="45"/>
+      <c r="BD12" s="45"/>
+      <c r="BE12" s="45"/>
+      <c r="BF12" s="45"/>
+      <c r="BG12" s="45"/>
+      <c r="BH12" s="45"/>
+      <c r="BI12" s="45"/>
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
       <c r="BL12" s="1"/>
@@ -19651,73 +19751,75 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
-        <v>34</v>
+      <c r="A13" s="44" t="s">
+        <v>29</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47" t="s">
-        <v>6</v>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45" t="s">
+        <v>40</v>
       </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47" t="s">
-        <v>35</v>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45" t="s">
+        <v>60</v>
       </c>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="48"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="45"/>
+      <c r="Y13" s="45"/>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="45"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="45"/>
+      <c r="AE13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF13" s="45"/>
+      <c r="AG13" s="45"/>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="45"/>
+      <c r="AP13" s="45"/>
+      <c r="AQ13" s="45"/>
+      <c r="AR13" s="45"/>
+      <c r="AS13" s="45"/>
+      <c r="AT13" s="45"/>
+      <c r="AU13" s="45"/>
+      <c r="AV13" s="45"/>
+      <c r="AW13" s="45"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -19917,69 +20019,67 @@
       <c r="IX13" s="1"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
-      <c r="AN14" s="12"/>
-      <c r="AO14" s="12"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="12"/>
-      <c r="AR14" s="12"/>
-      <c r="AS14" s="12"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="5"/>
-      <c r="AX14" s="5"/>
-      <c r="AY14" s="5"/>
-      <c r="AZ14" s="5"/>
-      <c r="BA14" s="5"/>
-      <c r="BB14" s="5"/>
-      <c r="BC14" s="5"/>
-      <c r="BD14" s="5"/>
-      <c r="BE14" s="5"/>
-      <c r="BF14" s="5"/>
-      <c r="BG14" s="5"/>
-      <c r="BH14" s="5"/>
-      <c r="BI14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
+      <c r="AL14" s="3"/>
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3"/>
+      <c r="AO14" s="3"/>
+      <c r="AP14" s="3"/>
+      <c r="AQ14" s="3"/>
+      <c r="AR14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AT14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BA14" s="3"/>
+      <c r="BB14" s="3"/>
+      <c r="BC14" s="3"/>
+      <c r="BD14" s="3"/>
+      <c r="BE14" s="3"/>
+      <c r="BF14" s="3"/>
+      <c r="BG14" s="3"/>
+      <c r="BH14" s="3"/>
+      <c r="BI14" s="3"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
       <c r="BL14" s="1"/>
@@ -20179,68 +20279,73 @@
       <c r="IX14" s="1"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="7" t="s">
-        <v>48</v>
+      <c r="A15" s="46" t="s">
+        <v>34</v>
       </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
-      <c r="AN15" s="12"/>
-      <c r="AO15" s="12"/>
-      <c r="AP15" s="12"/>
-      <c r="AQ15" s="12"/>
-      <c r="AR15" s="12"/>
-      <c r="AS15" s="12"/>
-      <c r="AT15" s="7"/>
-      <c r="AU15" s="22"/>
-      <c r="AV15" s="22"/>
-      <c r="AW15" s="8"/>
-      <c r="AX15" s="9"/>
-      <c r="AY15" s="9"/>
-      <c r="AZ15" s="9"/>
-      <c r="BA15" s="9"/>
-      <c r="BB15" s="9"/>
-      <c r="BC15" s="9"/>
-      <c r="BD15" s="9"/>
-      <c r="BE15" s="9"/>
-      <c r="BF15" s="9"/>
-      <c r="BG15" s="9"/>
-      <c r="BH15" s="9"/>
-      <c r="BI15" s="10"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="47"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="47"/>
+      <c r="AS15" s="47"/>
+      <c r="AT15" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU15" s="47"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="47"/>
+      <c r="AX15" s="47"/>
+      <c r="AY15" s="47"/>
+      <c r="AZ15" s="47"/>
+      <c r="BA15" s="47"/>
+      <c r="BB15" s="47"/>
+      <c r="BC15" s="47"/>
+      <c r="BD15" s="47"/>
+      <c r="BE15" s="47"/>
+      <c r="BF15" s="47"/>
+      <c r="BG15" s="47"/>
+      <c r="BH15" s="47"/>
+      <c r="BI15" s="48"/>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
       <c r="BL15" s="1"/>
@@ -20440,69 +20545,69 @@
       <c r="IX15" s="1"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
-      <c r="Q16" s="23"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="12"/>
-      <c r="S16" s="9"/>
+      <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="7"/>
-      <c r="AU16" s="22"/>
-      <c r="AV16" s="22"/>
-      <c r="AW16" s="8"/>
-      <c r="AX16" s="9"/>
-      <c r="AY16" s="9"/>
-      <c r="AZ16" s="9"/>
-      <c r="BA16" s="9"/>
-      <c r="BB16" s="9"/>
-      <c r="BC16" s="9"/>
-      <c r="BD16" s="9"/>
-      <c r="BE16" s="9"/>
-      <c r="BF16" s="9"/>
-      <c r="BG16" s="9"/>
-      <c r="BH16" s="9"/>
-      <c r="BI16" s="10"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
+      <c r="AZ16" s="5"/>
+      <c r="BA16" s="5"/>
+      <c r="BB16" s="5"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="5"/>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BG16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="6"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
       <c r="BL16" s="1"/>
@@ -20701,52 +20806,56 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
+    <row r="17" spans="1:258" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
       <c r="P17" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="22"/>
       <c r="AV17" s="22"/>
@@ -20978,12 +21087,14 @@
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
       <c r="P18" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q18" s="11"/>
-      <c r="R18" s="9"/>
+      <c r="R18" s="12"/>
       <c r="S18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
       <c r="W18" s="13"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
@@ -21238,14 +21349,12 @@
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
       <c r="P19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="U19" s="9"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -21500,14 +21609,12 @@
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
       <c r="P20" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="9"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="U20" s="9"/>
       <c r="W20" s="13"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
@@ -21762,7 +21869,7 @@
       <c r="N21" s="9"/>
       <c r="O21" s="10"/>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="9"/>
       <c r="R21" s="8"/>
@@ -22023,10 +22130,9 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="10"/>
-      <c r="P22" s="7" t="s">
-        <v>55</v>
+      <c r="P22" s="2" t="s">
+        <v>48</v>
       </c>
-      <c r="Q22" s="9"/>
       <c r="R22" s="8"/>
       <c r="S22" s="8"/>
       <c r="T22" s="13"/>
@@ -22285,9 +22391,8 @@
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="10"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="9" t="s">
-        <v>56</v>
+      <c r="Q23" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
@@ -22547,10 +22652,13 @@
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="10"/>
-      <c r="P24" s="7"/>
+      <c r="P24" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="Q24" s="9"/>
       <c r="R24" s="8"/>
-      <c r="S24" s="13"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -22806,10 +22914,13 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="10"/>
-      <c r="P25" s="7"/>
+      <c r="P25" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="Q25" s="9"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
@@ -22835,7 +22946,9 @@
       <c r="AQ25" s="13"/>
       <c r="AR25" s="13"/>
       <c r="AS25" s="13"/>
-      <c r="AT25" s="7"/>
+      <c r="AT25" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="AU25" s="22"/>
       <c r="AV25" s="22"/>
       <c r="AW25" s="8"/>
@@ -23066,10 +23179,9 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="13"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -23326,10 +23438,9 @@
       <c r="N27" s="9"/>
       <c r="O27" s="10"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="9"/>
+      <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="13"/>
+      <c r="S27" s="13"/>
       <c r="U27" s="13"/>
       <c r="V27" s="13"/>
       <c r="W27" s="13"/>
@@ -23585,8 +23696,6 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="10"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="9"/>
       <c r="R28" s="13"/>
       <c r="S28" s="8"/>
       <c r="T28" s="13"/>
@@ -23845,8 +23954,8 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="13"/>
       <c r="S29" s="8"/>
       <c r="T29" s="13"/>
@@ -24368,7 +24477,7 @@
       <c r="P31" s="27"/>
       <c r="Q31" s="28"/>
       <c r="R31" s="13"/>
-      <c r="S31" s="29"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
@@ -24625,12 +24734,12 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="10"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="28"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="13"/>
-      <c r="S32" s="29"/>
+      <c r="S32" s="8"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="29"/>
+      <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -24885,10 +24994,10 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="9"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="28"/>
       <c r="R33" s="13"/>
-      <c r="S33" s="8"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="13"/>
       <c r="U33" s="13"/>
       <c r="V33" s="13"/>
@@ -25145,12 +25254,12 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="10"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="9"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="28"/>
       <c r="R34" s="13"/>
-      <c r="S34" s="8"/>
+      <c r="S34" s="29"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
+      <c r="U34" s="29"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
@@ -25668,7 +25777,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
@@ -25928,7 +26037,7 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
+      <c r="S37" s="8"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="13"/>
@@ -26185,9 +26294,9 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="33"/>
+      <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
@@ -26445,9 +26554,9 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="10"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="7"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="33"/>
+      <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
@@ -26706,10 +26815,10 @@
       <c r="N40" s="9"/>
       <c r="O40" s="10"/>
       <c r="P40" s="3"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="33"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="33"/>
+      <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
@@ -26967,10 +27076,10 @@
       <c r="O41" s="10"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="9"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
@@ -26998,7 +27107,7 @@
       <c r="AT41" s="7"/>
       <c r="AU41" s="22"/>
       <c r="AV41" s="22"/>
-      <c r="AW41" s="9"/>
+      <c r="AW41" s="8"/>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
       <c r="AZ41" s="9"/>
@@ -27226,40 +27335,40 @@
       <c r="N42" s="9"/>
       <c r="O42" s="10"/>
       <c r="P42" s="3"/>
-      <c r="Q42" s="9"/>
+      <c r="Q42" s="12"/>
       <c r="R42" s="13"/>
-      <c r="S42" s="34"/>
+      <c r="S42" s="13"/>
       <c r="T42" s="33"/>
-      <c r="U42" s="34"/>
+      <c r="U42" s="13"/>
       <c r="V42" s="13"/>
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="9"/>
-      <c r="AN42" s="9"/>
-      <c r="AO42" s="9"/>
-      <c r="AP42" s="9"/>
-      <c r="AQ42" s="9"/>
-      <c r="AR42" s="9"/>
-      <c r="AS42" s="9"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="13"/>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="13"/>
       <c r="AT42" s="7"/>
       <c r="AU42" s="22"/>
       <c r="AV42" s="22"/>
-      <c r="AW42" s="9"/>
-      <c r="AX42" s="8"/>
+      <c r="AW42" s="8"/>
+      <c r="AX42" s="9"/>
       <c r="AY42" s="9"/>
       <c r="AZ42" s="9"/>
       <c r="BA42" s="9"/>
@@ -27485,41 +27594,41 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="34"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="13"/>
       <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
+      <c r="T43" s="33"/>
       <c r="U43" s="34"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-      <c r="AA43" s="9"/>
-      <c r="AB43" s="9"/>
-      <c r="AC43" s="9"/>
-      <c r="AD43" s="9"/>
-      <c r="AE43" s="9"/>
-      <c r="AF43" s="9"/>
-      <c r="AG43" s="9"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="9"/>
-      <c r="AJ43" s="9"/>
-      <c r="AK43" s="9"/>
-      <c r="AL43" s="9"/>
-      <c r="AM43" s="9"/>
-      <c r="AN43" s="9"/>
-      <c r="AO43" s="9"/>
-      <c r="AP43" s="9"/>
-      <c r="AQ43" s="9"/>
-      <c r="AR43" s="9"/>
-      <c r="AS43" s="9"/>
-      <c r="AT43" s="26"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
+      <c r="AH43" s="13"/>
+      <c r="AI43" s="13"/>
+      <c r="AJ43" s="13"/>
+      <c r="AK43" s="13"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="13"/>
+      <c r="AP43" s="13"/>
+      <c r="AQ43" s="13"/>
+      <c r="AR43" s="13"/>
+      <c r="AS43" s="13"/>
+      <c r="AT43" s="7"/>
       <c r="AU43" s="22"/>
       <c r="AV43" s="22"/>
       <c r="AW43" s="9"/>
-      <c r="AX43" s="8"/>
+      <c r="AX43" s="9"/>
       <c r="AY43" s="9"/>
       <c r="AZ43" s="9"/>
       <c r="BA43" s="9"/>
@@ -27745,36 +27854,36 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="10"/>
-      <c r="P44" s="7"/>
+      <c r="P44" s="3"/>
       <c r="Q44" s="9"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
       <c r="Y44" s="9"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
-      <c r="AO44" s="12"/>
-      <c r="AP44" s="12"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="12"/>
-      <c r="AS44" s="12"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="9"/>
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
       <c r="AT44" s="7"/>
       <c r="AU44" s="22"/>
       <c r="AV44" s="22"/>
@@ -28006,36 +28115,36 @@
       <c r="N45" s="9"/>
       <c r="O45" s="10"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="13"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="34"/>
+      <c r="S45" s="34"/>
+      <c r="T45" s="34"/>
+      <c r="U45" s="34"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
       <c r="Y45" s="9"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
-      <c r="AB45" s="12"/>
-      <c r="AC45" s="12"/>
-      <c r="AD45" s="12"/>
-      <c r="AE45" s="12"/>
-      <c r="AF45" s="12"/>
-      <c r="AG45" s="12"/>
-      <c r="AH45" s="12"/>
-      <c r="AI45" s="12"/>
-      <c r="AJ45" s="12"/>
-      <c r="AK45" s="12"/>
-      <c r="AL45" s="12"/>
-      <c r="AM45" s="12"/>
-      <c r="AN45" s="12"/>
-      <c r="AO45" s="12"/>
-      <c r="AP45" s="12"/>
-      <c r="AQ45" s="12"/>
-      <c r="AR45" s="12"/>
-      <c r="AS45" s="12"/>
-      <c r="AT45" s="7"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9"/>
+      <c r="AG45" s="9"/>
+      <c r="AH45" s="9"/>
+      <c r="AI45" s="9"/>
+      <c r="AJ45" s="9"/>
+      <c r="AK45" s="9"/>
+      <c r="AL45" s="9"/>
+      <c r="AM45" s="9"/>
+      <c r="AN45" s="9"/>
+      <c r="AO45" s="9"/>
+      <c r="AP45" s="9"/>
+      <c r="AQ45" s="9"/>
+      <c r="AR45" s="9"/>
+      <c r="AS45" s="9"/>
+      <c r="AT45" s="26"/>
       <c r="AU45" s="22"/>
       <c r="AV45" s="22"/>
       <c r="AW45" s="9"/>
@@ -28265,10 +28374,10 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="30"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="35"/>
-      <c r="S46" s="13"/>
+      <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
@@ -28526,7 +28635,7 @@
       <c r="N47" s="9"/>
       <c r="O47" s="10"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="30"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="35"/>
       <c r="S47" s="35"/>
       <c r="T47" s="13"/>
@@ -28785,11 +28894,11 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="10"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="9"/>
+      <c r="P48" s="31"/>
+      <c r="Q48" s="30"/>
       <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="35"/>
       <c r="U48" s="35"/>
       <c r="V48" s="35"/>
       <c r="W48" s="35"/>
@@ -29047,14 +29156,14 @@
       <c r="O49" s="10"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="30"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
       <c r="T49" s="13"/>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
-      <c r="Y49" s="12"/>
+      <c r="Y49" s="9"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
@@ -29306,15 +29415,15 @@
       <c r="N50" s="9"/>
       <c r="O50" s="10"/>
       <c r="P50" s="7"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
-      <c r="Y50" s="12"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="9"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
@@ -29335,7 +29444,7 @@
       <c r="AQ50" s="12"/>
       <c r="AR50" s="12"/>
       <c r="AS50" s="12"/>
-      <c r="AT50" s="31"/>
+      <c r="AT50" s="7"/>
       <c r="AU50" s="22"/>
       <c r="AV50" s="22"/>
       <c r="AW50" s="9"/>
@@ -29566,14 +29675,14 @@
       <c r="N51" s="9"/>
       <c r="O51" s="10"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="9"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
@@ -29826,10 +29935,11 @@
       <c r="N52" s="9"/>
       <c r="O52" s="10"/>
       <c r="P52" s="7"/>
-      <c r="R52" s="9"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="32"/>
       <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="32"/>
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
       <c r="X52" s="12"/>
@@ -29854,7 +29964,7 @@
       <c r="AQ52" s="12"/>
       <c r="AR52" s="12"/>
       <c r="AS52" s="12"/>
-      <c r="AT52" s="7"/>
+      <c r="AT52" s="31"/>
       <c r="AU52" s="22"/>
       <c r="AV52" s="22"/>
       <c r="AW52" s="9"/>
@@ -30069,67 +30179,67 @@
       <c r="IX52" s="1"/>
     </row>
     <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
-      <c r="AI53" s="18"/>
-      <c r="AJ53" s="18"/>
-      <c r="AK53" s="18"/>
-      <c r="AL53" s="18"/>
-      <c r="AM53" s="18"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="18"/>
-      <c r="AP53" s="18"/>
-      <c r="AQ53" s="18"/>
-      <c r="AR53" s="18"/>
-      <c r="AS53" s="18"/>
-      <c r="AT53" s="14"/>
-      <c r="AU53" s="24"/>
-      <c r="AV53" s="24"/>
-      <c r="AW53" s="15"/>
-      <c r="AX53" s="19"/>
-      <c r="AY53" s="15"/>
-      <c r="AZ53" s="15"/>
-      <c r="BA53" s="15"/>
-      <c r="BB53" s="15"/>
-      <c r="BC53" s="15"/>
-      <c r="BD53" s="15"/>
-      <c r="BE53" s="15"/>
-      <c r="BF53" s="15"/>
-      <c r="BG53" s="15"/>
-      <c r="BH53" s="15"/>
-      <c r="BI53" s="16"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="22"/>
+      <c r="AV53" s="22"/>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="8"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+      <c r="BE53" s="9"/>
+      <c r="BF53" s="9"/>
+      <c r="BG53" s="9"/>
+      <c r="BH53" s="9"/>
+      <c r="BI53" s="10"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
@@ -30329,67 +30439,66 @@
       <c r="IX53" s="1"/>
     </row>
     <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="20"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="20"/>
-      <c r="AO54" s="20"/>
-      <c r="AP54" s="20"/>
-      <c r="AQ54" s="20"/>
-      <c r="AR54" s="20"/>
-      <c r="AS54" s="20"/>
-      <c r="AT54" s="20"/>
-      <c r="AU54" s="20"/>
-      <c r="AV54" s="20"/>
-      <c r="AW54" s="20"/>
-      <c r="AX54" s="20"/>
-      <c r="AY54" s="20"/>
-      <c r="AZ54" s="20"/>
-      <c r="BA54" s="20"/>
-      <c r="BB54" s="20"/>
-      <c r="BC54" s="20"/>
-      <c r="BD54" s="20"/>
-      <c r="BE54" s="20"/>
-      <c r="BF54" s="20"/>
-      <c r="BG54" s="20"/>
-      <c r="BH54" s="20"/>
-      <c r="BI54" s="20"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="7"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="22"/>
+      <c r="AV54" s="22"/>
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="8"/>
+      <c r="AY54" s="9"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="9"/>
+      <c r="BC54" s="9"/>
+      <c r="BD54" s="9"/>
+      <c r="BE54" s="9"/>
+      <c r="BF54" s="9"/>
+      <c r="BG54" s="9"/>
+      <c r="BH54" s="9"/>
+      <c r="BI54" s="10"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
@@ -30588,8 +30697,528 @@
       <c r="IW54" s="1"/>
       <c r="IX54" s="1"/>
     </row>
+    <row r="55" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="18"/>
+      <c r="AJ55" s="18"/>
+      <c r="AK55" s="18"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="18"/>
+      <c r="AR55" s="18"/>
+      <c r="AS55" s="18"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="24"/>
+      <c r="AV55" s="24"/>
+      <c r="AW55" s="15"/>
+      <c r="AX55" s="19"/>
+      <c r="AY55" s="15"/>
+      <c r="AZ55" s="15"/>
+      <c r="BA55" s="15"/>
+      <c r="BB55" s="15"/>
+      <c r="BC55" s="15"/>
+      <c r="BD55" s="15"/>
+      <c r="BE55" s="15"/>
+      <c r="BF55" s="15"/>
+      <c r="BG55" s="15"/>
+      <c r="BH55" s="15"/>
+      <c r="BI55" s="16"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="1"/>
+      <c r="DB55" s="1"/>
+      <c r="DC55" s="1"/>
+      <c r="DD55" s="1"/>
+      <c r="DE55" s="1"/>
+      <c r="DF55" s="1"/>
+      <c r="DG55" s="1"/>
+      <c r="DH55" s="1"/>
+      <c r="DI55" s="1"/>
+      <c r="DJ55" s="1"/>
+      <c r="DK55" s="1"/>
+      <c r="DL55" s="1"/>
+      <c r="DM55" s="1"/>
+      <c r="DN55" s="1"/>
+      <c r="DO55" s="1"/>
+      <c r="DP55" s="1"/>
+      <c r="DQ55" s="1"/>
+      <c r="DR55" s="1"/>
+      <c r="DS55" s="1"/>
+      <c r="DT55" s="1"/>
+      <c r="DU55" s="1"/>
+      <c r="DV55" s="1"/>
+      <c r="DW55" s="1"/>
+      <c r="DX55" s="1"/>
+      <c r="DY55" s="1"/>
+      <c r="DZ55" s="1"/>
+      <c r="EA55" s="1"/>
+      <c r="EB55" s="1"/>
+      <c r="EC55" s="1"/>
+      <c r="ED55" s="1"/>
+      <c r="EE55" s="1"/>
+      <c r="EF55" s="1"/>
+      <c r="EG55" s="1"/>
+      <c r="EH55" s="1"/>
+      <c r="EI55" s="1"/>
+      <c r="EJ55" s="1"/>
+      <c r="EK55" s="1"/>
+      <c r="EL55" s="1"/>
+      <c r="EM55" s="1"/>
+      <c r="EN55" s="1"/>
+      <c r="EO55" s="1"/>
+      <c r="EP55" s="1"/>
+      <c r="EQ55" s="1"/>
+      <c r="ER55" s="1"/>
+      <c r="ES55" s="1"/>
+      <c r="ET55" s="1"/>
+      <c r="EU55" s="1"/>
+      <c r="EV55" s="1"/>
+      <c r="EW55" s="1"/>
+      <c r="EX55" s="1"/>
+      <c r="EY55" s="1"/>
+      <c r="EZ55" s="1"/>
+      <c r="FA55" s="1"/>
+      <c r="FB55" s="1"/>
+      <c r="FC55" s="1"/>
+      <c r="FD55" s="1"/>
+      <c r="FE55" s="1"/>
+      <c r="FF55" s="1"/>
+      <c r="FG55" s="1"/>
+      <c r="FH55" s="1"/>
+      <c r="FI55" s="1"/>
+      <c r="FJ55" s="1"/>
+      <c r="FK55" s="1"/>
+      <c r="FL55" s="1"/>
+      <c r="FM55" s="1"/>
+      <c r="FN55" s="1"/>
+      <c r="FO55" s="1"/>
+      <c r="FP55" s="1"/>
+      <c r="FQ55" s="1"/>
+      <c r="FR55" s="1"/>
+      <c r="FS55" s="1"/>
+      <c r="FT55" s="1"/>
+      <c r="FU55" s="1"/>
+      <c r="FV55" s="1"/>
+      <c r="FW55" s="1"/>
+      <c r="FX55" s="1"/>
+      <c r="FY55" s="1"/>
+      <c r="FZ55" s="1"/>
+      <c r="GA55" s="1"/>
+      <c r="GB55" s="1"/>
+      <c r="GC55" s="1"/>
+      <c r="GD55" s="1"/>
+      <c r="GE55" s="1"/>
+      <c r="GF55" s="1"/>
+      <c r="GG55" s="1"/>
+      <c r="GH55" s="1"/>
+      <c r="GI55" s="1"/>
+      <c r="GJ55" s="1"/>
+      <c r="GK55" s="1"/>
+      <c r="GL55" s="1"/>
+      <c r="GM55" s="1"/>
+      <c r="GN55" s="1"/>
+      <c r="GO55" s="1"/>
+      <c r="GP55" s="1"/>
+      <c r="GQ55" s="1"/>
+      <c r="GR55" s="1"/>
+      <c r="GS55" s="1"/>
+      <c r="GT55" s="1"/>
+      <c r="GU55" s="1"/>
+      <c r="GV55" s="1"/>
+      <c r="GW55" s="1"/>
+      <c r="GX55" s="1"/>
+      <c r="GY55" s="1"/>
+      <c r="GZ55" s="1"/>
+      <c r="HA55" s="1"/>
+      <c r="HB55" s="1"/>
+      <c r="HC55" s="1"/>
+      <c r="HD55" s="1"/>
+      <c r="HE55" s="1"/>
+      <c r="HF55" s="1"/>
+      <c r="HG55" s="1"/>
+      <c r="HH55" s="1"/>
+      <c r="HI55" s="1"/>
+      <c r="HJ55" s="1"/>
+      <c r="HK55" s="1"/>
+      <c r="HL55" s="1"/>
+      <c r="HM55" s="1"/>
+      <c r="HN55" s="1"/>
+      <c r="HO55" s="1"/>
+      <c r="HP55" s="1"/>
+      <c r="HQ55" s="1"/>
+      <c r="HR55" s="1"/>
+      <c r="HS55" s="1"/>
+      <c r="HT55" s="1"/>
+      <c r="HU55" s="1"/>
+      <c r="HV55" s="1"/>
+      <c r="HW55" s="1"/>
+      <c r="HX55" s="1"/>
+      <c r="HY55" s="1"/>
+      <c r="HZ55" s="1"/>
+      <c r="IA55" s="1"/>
+      <c r="IB55" s="1"/>
+      <c r="IC55" s="1"/>
+      <c r="ID55" s="1"/>
+      <c r="IE55" s="1"/>
+      <c r="IF55" s="1"/>
+      <c r="IG55" s="1"/>
+      <c r="IH55" s="1"/>
+      <c r="II55" s="1"/>
+      <c r="IJ55" s="1"/>
+      <c r="IK55" s="1"/>
+      <c r="IL55" s="1"/>
+      <c r="IM55" s="1"/>
+      <c r="IN55" s="1"/>
+      <c r="IO55" s="1"/>
+      <c r="IP55" s="1"/>
+      <c r="IQ55" s="1"/>
+      <c r="IR55" s="1"/>
+      <c r="IS55" s="1"/>
+      <c r="IT55" s="1"/>
+      <c r="IU55" s="1"/>
+      <c r="IV55" s="1"/>
+      <c r="IW55" s="1"/>
+      <c r="IX55" s="1"/>
+    </row>
+    <row r="56" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="20"/>
+      <c r="AD56" s="20"/>
+      <c r="AE56" s="20"/>
+      <c r="AF56" s="20"/>
+      <c r="AG56" s="20"/>
+      <c r="AH56" s="20"/>
+      <c r="AI56" s="20"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="20"/>
+      <c r="AL56" s="20"/>
+      <c r="AM56" s="20"/>
+      <c r="AN56" s="20"/>
+      <c r="AO56" s="20"/>
+      <c r="AP56" s="20"/>
+      <c r="AQ56" s="20"/>
+      <c r="AR56" s="20"/>
+      <c r="AS56" s="20"/>
+      <c r="AT56" s="20"/>
+      <c r="AU56" s="20"/>
+      <c r="AV56" s="20"/>
+      <c r="AW56" s="20"/>
+      <c r="AX56" s="20"/>
+      <c r="AY56" s="20"/>
+      <c r="AZ56" s="20"/>
+      <c r="BA56" s="20"/>
+      <c r="BB56" s="20"/>
+      <c r="BC56" s="20"/>
+      <c r="BD56" s="20"/>
+      <c r="BE56" s="20"/>
+      <c r="BF56" s="20"/>
+      <c r="BG56" s="20"/>
+      <c r="BH56" s="20"/>
+      <c r="BI56" s="20"/>
+      <c r="BJ56" s="1"/>
+      <c r="BK56" s="1"/>
+      <c r="BL56" s="1"/>
+      <c r="BM56" s="1"/>
+      <c r="BN56" s="1"/>
+      <c r="BO56" s="1"/>
+      <c r="BP56" s="1"/>
+      <c r="BQ56" s="1"/>
+      <c r="BR56" s="1"/>
+      <c r="BS56" s="1"/>
+      <c r="BT56" s="1"/>
+      <c r="BU56" s="1"/>
+      <c r="BV56" s="1"/>
+      <c r="BW56" s="1"/>
+      <c r="BX56" s="1"/>
+      <c r="BY56" s="1"/>
+      <c r="BZ56" s="1"/>
+      <c r="CA56" s="1"/>
+      <c r="CB56" s="1"/>
+      <c r="CC56" s="1"/>
+      <c r="CD56" s="1"/>
+      <c r="CE56" s="1"/>
+      <c r="CF56" s="1"/>
+      <c r="CG56" s="1"/>
+      <c r="CH56" s="1"/>
+      <c r="CI56" s="1"/>
+      <c r="CJ56" s="1"/>
+      <c r="CK56" s="1"/>
+      <c r="CL56" s="1"/>
+      <c r="CM56" s="1"/>
+      <c r="CN56" s="1"/>
+      <c r="CO56" s="1"/>
+      <c r="CP56" s="1"/>
+      <c r="CQ56" s="1"/>
+      <c r="CR56" s="1"/>
+      <c r="CS56" s="1"/>
+      <c r="CT56" s="1"/>
+      <c r="CU56" s="1"/>
+      <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
+      <c r="CX56" s="1"/>
+      <c r="CY56" s="1"/>
+      <c r="CZ56" s="1"/>
+      <c r="DA56" s="1"/>
+      <c r="DB56" s="1"/>
+      <c r="DC56" s="1"/>
+      <c r="DD56" s="1"/>
+      <c r="DE56" s="1"/>
+      <c r="DF56" s="1"/>
+      <c r="DG56" s="1"/>
+      <c r="DH56" s="1"/>
+      <c r="DI56" s="1"/>
+      <c r="DJ56" s="1"/>
+      <c r="DK56" s="1"/>
+      <c r="DL56" s="1"/>
+      <c r="DM56" s="1"/>
+      <c r="DN56" s="1"/>
+      <c r="DO56" s="1"/>
+      <c r="DP56" s="1"/>
+      <c r="DQ56" s="1"/>
+      <c r="DR56" s="1"/>
+      <c r="DS56" s="1"/>
+      <c r="DT56" s="1"/>
+      <c r="DU56" s="1"/>
+      <c r="DV56" s="1"/>
+      <c r="DW56" s="1"/>
+      <c r="DX56" s="1"/>
+      <c r="DY56" s="1"/>
+      <c r="DZ56" s="1"/>
+      <c r="EA56" s="1"/>
+      <c r="EB56" s="1"/>
+      <c r="EC56" s="1"/>
+      <c r="ED56" s="1"/>
+      <c r="EE56" s="1"/>
+      <c r="EF56" s="1"/>
+      <c r="EG56" s="1"/>
+      <c r="EH56" s="1"/>
+      <c r="EI56" s="1"/>
+      <c r="EJ56" s="1"/>
+      <c r="EK56" s="1"/>
+      <c r="EL56" s="1"/>
+      <c r="EM56" s="1"/>
+      <c r="EN56" s="1"/>
+      <c r="EO56" s="1"/>
+      <c r="EP56" s="1"/>
+      <c r="EQ56" s="1"/>
+      <c r="ER56" s="1"/>
+      <c r="ES56" s="1"/>
+      <c r="ET56" s="1"/>
+      <c r="EU56" s="1"/>
+      <c r="EV56" s="1"/>
+      <c r="EW56" s="1"/>
+      <c r="EX56" s="1"/>
+      <c r="EY56" s="1"/>
+      <c r="EZ56" s="1"/>
+      <c r="FA56" s="1"/>
+      <c r="FB56" s="1"/>
+      <c r="FC56" s="1"/>
+      <c r="FD56" s="1"/>
+      <c r="FE56" s="1"/>
+      <c r="FF56" s="1"/>
+      <c r="FG56" s="1"/>
+      <c r="FH56" s="1"/>
+      <c r="FI56" s="1"/>
+      <c r="FJ56" s="1"/>
+      <c r="FK56" s="1"/>
+      <c r="FL56" s="1"/>
+      <c r="FM56" s="1"/>
+      <c r="FN56" s="1"/>
+      <c r="FO56" s="1"/>
+      <c r="FP56" s="1"/>
+      <c r="FQ56" s="1"/>
+      <c r="FR56" s="1"/>
+      <c r="FS56" s="1"/>
+      <c r="FT56" s="1"/>
+      <c r="FU56" s="1"/>
+      <c r="FV56" s="1"/>
+      <c r="FW56" s="1"/>
+      <c r="FX56" s="1"/>
+      <c r="FY56" s="1"/>
+      <c r="FZ56" s="1"/>
+      <c r="GA56" s="1"/>
+      <c r="GB56" s="1"/>
+      <c r="GC56" s="1"/>
+      <c r="GD56" s="1"/>
+      <c r="GE56" s="1"/>
+      <c r="GF56" s="1"/>
+      <c r="GG56" s="1"/>
+      <c r="GH56" s="1"/>
+      <c r="GI56" s="1"/>
+      <c r="GJ56" s="1"/>
+      <c r="GK56" s="1"/>
+      <c r="GL56" s="1"/>
+      <c r="GM56" s="1"/>
+      <c r="GN56" s="1"/>
+      <c r="GO56" s="1"/>
+      <c r="GP56" s="1"/>
+      <c r="GQ56" s="1"/>
+      <c r="GR56" s="1"/>
+      <c r="GS56" s="1"/>
+      <c r="GT56" s="1"/>
+      <c r="GU56" s="1"/>
+      <c r="GV56" s="1"/>
+      <c r="GW56" s="1"/>
+      <c r="GX56" s="1"/>
+      <c r="GY56" s="1"/>
+      <c r="GZ56" s="1"/>
+      <c r="HA56" s="1"/>
+      <c r="HB56" s="1"/>
+      <c r="HC56" s="1"/>
+      <c r="HD56" s="1"/>
+      <c r="HE56" s="1"/>
+      <c r="HF56" s="1"/>
+      <c r="HG56" s="1"/>
+      <c r="HH56" s="1"/>
+      <c r="HI56" s="1"/>
+      <c r="HJ56" s="1"/>
+      <c r="HK56" s="1"/>
+      <c r="HL56" s="1"/>
+      <c r="HM56" s="1"/>
+      <c r="HN56" s="1"/>
+      <c r="HO56" s="1"/>
+      <c r="HP56" s="1"/>
+      <c r="HQ56" s="1"/>
+      <c r="HR56" s="1"/>
+      <c r="HS56" s="1"/>
+      <c r="HT56" s="1"/>
+      <c r="HU56" s="1"/>
+      <c r="HV56" s="1"/>
+      <c r="HW56" s="1"/>
+      <c r="HX56" s="1"/>
+      <c r="HY56" s="1"/>
+      <c r="HZ56" s="1"/>
+      <c r="IA56" s="1"/>
+      <c r="IB56" s="1"/>
+      <c r="IC56" s="1"/>
+      <c r="ID56" s="1"/>
+      <c r="IE56" s="1"/>
+      <c r="IF56" s="1"/>
+      <c r="IG56" s="1"/>
+      <c r="IH56" s="1"/>
+      <c r="II56" s="1"/>
+      <c r="IJ56" s="1"/>
+      <c r="IK56" s="1"/>
+      <c r="IL56" s="1"/>
+      <c r="IM56" s="1"/>
+      <c r="IN56" s="1"/>
+      <c r="IO56" s="1"/>
+      <c r="IP56" s="1"/>
+      <c r="IQ56" s="1"/>
+      <c r="IR56" s="1"/>
+      <c r="IS56" s="1"/>
+      <c r="IT56" s="1"/>
+      <c r="IU56" s="1"/>
+      <c r="IV56" s="1"/>
+      <c r="IW56" s="1"/>
+      <c r="IX56" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="53">
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
@@ -30619,12 +31248,11 @@
     <mergeCell ref="D7:O7"/>
     <mergeCell ref="P7:AD7"/>
     <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="AT13:BI13"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
     <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A15:O15"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:O10"/>
     <mergeCell ref="P10:AD10"/>
@@ -30633,11 +31261,21 @@
     <mergeCell ref="D11:O11"/>
     <mergeCell ref="P11:AD11"/>
     <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="P15:AS15"/>
+    <mergeCell ref="A17:O17"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:BI12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE13:BI13"/>
+    <mergeCell ref="AT15:BI15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A13" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30649,15 +31287,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -30789,21 +31418,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27446016-DB91-4EAC-B347-E10B099FE93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30821,11 +31451,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>